--- a/500all/speech_level/speeches_CHRG-114hhrg97652.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97652.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400419</t>
   </si>
   <si>
-    <t>Greg Walden</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walden. I will call to order the Subcommittee on Communications and Technology, and I apologize for the delay in getting started. We had some votes, and a couple of member things I had to deal with, but we are here now.    When we last convened to discuss FirstNet, my goal was to leave that hearing with a higher level of comfort with regard to FirstNet's progress and confidence in the way it was conducting its business. As we all recognized then, and continue to acknowledge today, FirstNet has before it an undertaking which rivals the network deployments of our largest national carriers. In fact, given its mandate to build an interoperable wireless broadband service for all of our Nation's first responders, its task will take to all corners of the United States.    Now, early shortcomings in FirstNet's approach to consultation with States and other interested parties had resulted in considerable uncertainty and concern among stakeholders. Confused messaging, a perceived lack of transparency, and unanswered questions regarding FirstNet's vision for the network, and even FirstNet's vision for itself, further complicated things. Questions like, How would FirstNet provide service? Would it build a network, or partner with commercial carriers? What is FirstNet going to charge, and how does the opt-out work? Each contributed to the concerns raised at the hearing, and answers were far from forthcoming. Now, on top of all the policy concerns, FirstNet was also under investigation by the Inspector General of the Department of Commerce into alleged conflicts of interest and contracting concerns when we gaveled in last time.    Now, much has happened since then. There has been some turnover in management, and--with the release of the IG's report in December of last year confirming much of what we feared, that FirstNet had been operating without proper processes in place, and without compliance with the laws that guard against impropriety. It is my hope that the missteps are now behind us, and I believe they are. But that is not to say that there aren't additional challenges.    On April 28 the U.S. Government Accountability Office released a report on FirstNet's progress in establishing the network, concluding that while FirstNet has made progress carrying out its responsibilities, weaknesses in FirstNet's internal controls remain. For example, it remains unclear how FirstNet is internalizing the lessons learned from the Early Builder projects. Those are the five jurisdictions that are already deployed--or deploying public safety broadband networks using FirstNet spectrum. And while the GAO report recommends fixes, it is GAO's succinct statement of what lies ahead that must inform our oversight. FirstNet faces a multitude of risks, significant challenges, and difficult decisions in meeting its statutory responsibilities, including how to become a self-funding entity.    To give FirstNet credit, it has made progress. We witnessed FirstNet's information collections, and consultation, and outreach activities accelerate through 2014. The feedback gathered has informed discussion on deployment and brought productive debate among all stakeholders. Today's hearing reflects the subcommittee's commitment to continued and thorough oversight of FirstNet. We all share the goal of ensuring that our Nation's first responders realize the promise of truly interoperable state-of-the-art emergency communications networks envisioned by the law. With those early missteps behind us today, we look not only at the progress FirstNet has made, but also what new challenges lie ahead, our goal being to leave with a higher level of comfort in FirstNet's progress, and confidence in the way it is conducting its business.    So I look forward to hearing from Mr. Kennedy, who can provide an update on FirstNet's progress, put some of the pieces together, and share with more specificity developments in FirstNet's considerations and visions for the public safety broadband network. I also would like to thank Mr. Davis for appearing a second time before the subcommittee to share his experience as a State Chief Information Officer, and his assessment what needs improvement, and where FirstNet is headed.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412256</t>
   </si>
   <si>
-    <t>Robert E. Latta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Latta. Well, thank you very much, Mr. Chairman, and again, thanks for holding today's hearing, and thanks to our witnesses for being back with us today, I really appreciate it, especially Mr. Davis, coming from Ohio. Public safety and emergency communications are critical to protecting the lives of Americans. That is why we must ensure that the implementation of FirstNet is very successful. A reliable nationwide network is essential for first responders to facilitate their communication needs and support their everyday missions.    While I understand developing a nationwide interoperable public safety network is a significant undertaking, it is imperative that it is properly established to meet the needs of all Americans, especially our first responders. Furthermore, I am eager to see the future developments, as consultations are underway to better incorporate the States' input into planning and implementation of the broadband network.    Mr. Chairman, I look forward to today's hearing, and again thank our witnesses for appearing.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400124</t>
   </si>
   <si>
-    <t>Anna G. Eshoo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Eshoo. Thank you, Mr. Chairman. Good afternoon, everyone, and thank you to the witnesses for being here. It has been a year and a half since our subcommittee last held a FirstNet oversight hearing, and progress has been made. I think that there are--we have a lot of questions. Obviously, since we haven't been together for a year and a half for--to do the oversight that needs to be done. But--and we look forward to--I look forward to asking those questions, and I am sure that my colleagues do as well.    Now, in terms of progress, I think amongst the biggest milestones include the release of a strategic road map, ongoing collaboration with States, and most recently the draft request for proposals intended to provide FirstNet with extensive stakeholder input. And that is--in my book, that is one of the--that is really key. You have to talk to customers. You are not in touch with customers, your company or endeavor is going to flop, in my view.    So, thanks to the success of the recently completed    AWS-3 auction, FirstNet will soon have the funds it needs to deliver on the first-ever nationwide interoperable public safety network. And I remind everyone that this was the one recommendation of the 9/11 Commission that the Congress had not made good on, but we did for the American people. So a lot rides on this effort. A lot rides on this effort, and we got the money for you, and did the legislation. It became law, and we want to make sure that this is not only done, but done very well, because it is a very big deal. It is a big deal for our country.    Going forward, I think there are three key areas which FirstNet's leadership should give special consideration to. First, I think it is critical that wireless carriers of all sizes have an opportunity to partner with FirstNet, just be an equal opportunity outfit, in my view. In particular, regional and/or rural providers will have an important role to play, both in building the network, as well as being able to provide consumers with enhanced wireless broadband service when the network is not needed by emergency personnel.    Second, device competition is critical to the success of FirstNet. $5,000 public safety radios are out, o-u-t, so there is--I don't even--I don't want to hear about them anymore. As far as I am concerned, they don't exist, and I don't think any of the dollars that are being provided should go to anything like that. That is yesterday. What is in? Highly innovative broadband enabled devices that can transmit live video from a robot sent to, for example, to assess a suspicious package, view floor plans of a burning building, access medical history of a patient in distress, as well as the wide range of other mobile applications. In other words, you have to be just as 21st century as the rest of the--of this ecosystem is in our country. These devices have to be truly interoperable, and capable of withstanding the physical challenges that first responders face very day.    And finally, I think that FirstNet should ensure its core operations align with the standards and the technologies related to next generation 911. Congressman Shimkus has been, you know, a great, great advocate, a coach here of the e-911 caucus. We have been working on these issues for more years than we want to count, and so there has to be alignment with that operation. The call centers around the country are upgrading to NG-911, and they are becoming capable of receiving photos, and videos, and text messages, so it only makes sense that this information can be seamlessly transmitted to first responders headed to an emergency situation. So the--your operations have to be absolutely aligned.    So as we work toward advancing the next generation of public safety communications, I want to thank you for the work that you have already done, for what you are going to do, and for being here today to testify and give us a good deep dive on where things are, and how you see the future. Thank you, and I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>400032</t>
   </si>
   <si>
-    <t>Marsha Blackburn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Blackburn. Thank you, Mr. Chairman, and I want to thank you all for being here to give us an update. As the Chairman said in his comments, this is something we have followed, will continue to follow, and do appropriate oversight with you. We are so focused on your funding mechanism, how you moved to self-funding after that initial tranche of money is exhausted, and then how you are going to see that business model developing.    Also, the issue of interoperability, those of us that have worked through the issues of some of our natural disasters want to make certain that that is being addressed, and that the stakeholders, with all of the first responders across the country, are going to understand, participate, and that we are going to realize this objective of having something that is interoperable.    The other thing I want to touch on, and I will get to this in my questions a bit more, the aspects of a secure network. We are realizing more and more the importance of having a secure network, and, of course, we realize, closed systems, we are going to deal with those one way, enterprise systems another way. When you look at something that meets the interoperability component that you are going to have, the security of the system is just so important to us.    We are living in an age where we face cyberattacks not just on a monthly basis, a weekly basis, but an hourly basis. So please talk with us about this issue of security. It is a heightened concern for us as we move into the age of the Internet of everything, and look at 50 billion devices being attached by the time we get to the end of this decade. So that secure wireless network that is the goal, we want to be certain that indeed it is secure, and hear from you as much as you can divulge to us that--how you are achieving that.    With that, I will yield the balance of my time to anyone who is seeking time. No takers? Time goes back----</t>
   </si>
   <si>
@@ -109,9 +97,6 @@
     <t>400663</t>
   </si>
   <si>
-    <t>Doris O. Matsui</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Matsui. Thank you, Mr. Chairman, for yielding Mr. Pallone's time to me. First of all, let me say FirstNet is a startup, let us not forget that. Like every startup, it has had its growing pains. For so long there were questions on how FirstNet would be funded, but now we know that it was fully funded, and will be operational, due to this subcommittee's diligent work on AWS-3's record setting spectrum auction. Last year FirstNet laid out a road map, and I am pleased that they are hitting their milestones so far.    From the beginning I remained focused on the need for a strong governance structure at FirstNet to responsibly govern any nationwide public safety interoperability network. Despite some initial concerns about the role of States taking a back seat, I am pleased that the FirstNet board took this issue head on and developed a strong coordinated relationship with the States. It is my hope that we can work together in a bipartisan manner to achieve success for America's first responders. And I yield to anyone on my side who would like to take the rest of the time. No? I yield back the balance of my time.</t>
   </si>
   <si>
@@ -121,18 +106,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Kennedy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kennedy. Thank you, Chairman Walden, Ranking Member Eshoo, members of the subcommittee. I really appreciate being here on behalf of the First Respondent Network Authority. I welcome the opportunity to brief you on FirstNet's progress, and the development of deploying an interoperable nationwide public safety broadband network. It is also a pleasure to appear here today with the CIO of the State of Ohio, Stu Davis. We just recently conducted the Ohio consultation last week in Ohio, and his team has been very active not just in Ohio itself, but even within the region, in setting a great example for our country in how to make this network possible.    I would like to welcome several members of the public safety community who join us here today. This network is all about them. When we put reliable, resilient broadband technology in the hands of police officers, firefighters, emergency medical services personnel across this country, we will enhance public safety like never before. We will create new ways that first responders can save lives, and improve first responders' own safety. As this committee is aware, we are experiencing growing pains in our early days of existence, but we have worked very hard to shore up areas of weakness, and to take on as much responsibility as we can. And I am very confident that today you will find our processes and procedures in line with your expectations.    I am leading a dedicated team of professionals, who are working tirelessly to achieve both the goals that you have created for us, and the internal goals that we strive to achieve every day. Each day we work on recruiting and building the most talented team possible in order to make this program successful. Under the direction of the Chairwoman of the Board, Mrs. Sue Swinson, we have implemented a culture measured by results, while always remembering who we are working for. The network that we will deploy is public safety's network, and this is the key principle that guides our work each day.    The pace at which we are working is very high, and this leads to a demanding, but rewarding, work environment. FirstNet resembles a startup, and we have a team that has rolled up its sleeves, and is focused on consultation and/or acquisition that will result in the successful deployment of a nationwide public safety broadband network. Having a wireless startup inside of Government is a challenge that we are overcoming, and you are able to see the progress that we have made. Since the release of our strategic road map in March of 2014, we have been doing something unusual. We are actually doing what we told you we would do. We released a plan, and we are sticking to it, and we are meeting the goals that we set out to achieve.    Since we last testified before this subcommittee in November of '13, we have accomplished the following. We released 13 RFIs, which examined numerous aspects of the network. We published a statement of objectives with a comprehensive network RFI. This brought together all of the information that we had received into a single document. We conducted three public notices addressing various aspects of our enabling statute, and in April we released a special notice with draft RFP documents. We have been consulting with States and territories, and conducting an enormous amount of outreach to our stakeholders.    While we have taken great strides in the right direction, significant work remains, and we at FirstNet are committed to completing the mission that Congress has given us. One area that I believe we have improved on is engaging with our Public Safety Advisory Committee, known as the PSAC. A lot of the credit for this improvement must go to Chairwoman Swinson and the PSAC Chairman, Chief Harlin McEwan. The PSAC is actively engaged in task teams that are working on critical topics, such as priority and preemption, public safety grade, and end user devices. The 40 members of the PSAC are public safety's voice with FirstNet, and by leveraging it, we will ensure that we integrate public safety into the fabric of the network at every stage of planning and deployment.    Our consultation and outreach efforts have been impressive, but more work remains to be done. We have held consultations with 35 States to date, with a further 15 scheduled. In fact, Mr. Chairman, your home State of Oregon was one of our early consultations, and we have seen an impressive outreach in organizational structure in Oregon, and many other States. FirstNet is collaborating with States in public safety to conduct outreach and consultation, and are leveraging the State and local implementation grant program that has helped fund these important efforts throughout the country.    As we work towards the end of the year, and the planned release of the comprehensive network RFP, the consultation process continues to inform the composition of the RFP, and so it is very important that States are involved at every stage in development of the network. States have many avenues for consultation beyond our in person meetings and regular conference calls. States can have significant consultation feedback through the responses to our public notices and our draft statement of objectives. I have directed the organization to focus on these very two topics in 2015, consultation, and our acquisition of the network. These are our top priorities to meet the requirements of the act.    FirstNet currently has a number of draft RFP documents open for public comment, and we have been very encouraged by the feedback that we received up to this point from both industry, from public safety, and from States. Mr. Chairman, it is the mission, that of deploying a much needed nationwide public safety broadband system that our first responders deserve, that has me excited to come to work every morning. This is not an easy task, but it is extremely rewarding to the hard working team members of FirstNet, and we all understand the critical importance to our country of getting this right for public safety.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walden. Mr. Kennedy, thank you for your leadership, and that of your team's, and the progress that you are making, and your forthright commitment to do what you told us you would do. That is novel. We were just suggesting bringing you back more often.    Now we go to Mr. Stu Davis--we have got a few other agencies we can assign you to--State Chief Information Officer, Assistant Director, Ohio Department of Administrative Services. Mr. Davis, we are delighted to have you back before the subcommittee. Please go ahead.</t>
   </si>
   <si>
-    <t>Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Davis. It is good to be here. Good afternoon, Chairman Walden, Ranking Member Eshoo, and members of the subcommittee. Thank you for the opportunity to testify on FirstNet and the National Public Safety Broadband Network. As State CIO, I also chair the Multi-Agency Radio Communication System, or MARCS, and the Steering Committee, Ohio's land mobile radio system that supports voice and data communications for statewide public safety and emergency response. And I also chair Ohio's Next Generation 911 steering committee as well.    I first testified before you in November 2013 and expressed concerns that the Ohio General Assembly had about FirstNet. It called for this subcommittee to continue these meetings, and we commend you for doing so. I also expressed concerns relative to some key components that are necessary for success. FirstNet has been--has made significant progress in further defining and communicating the mitigation of these concerns. Regarding the State's relationship with FirstNet, it is important that FirstNet views this as a partnership. FirstNet has come a long way in this regard, and, over the past year and a half, many States have had the opportunity to meet with representatives from FirstNet and discuss issues and concerns. FirstNet's message has been clear. They are listening, reacting to our concerns. Ohio's FirstNet consultation was held last week, and by all accounts was a positive interaction.    From a planning and development perspective, States, including Ohio, have received planning grants to support stakeholder outreach, governance, and data collection activities in support of FirstNet. Ohio has been pursuing a regional, or a multi-State approach. The FEMA region, five States of Michigan, Minnesota, Indiana, Illinois, Wisconsin, and Ohio, have long been partners in the pursuit of obtaining the best possible public safety communication networks for the region. Region 5 States met often on FirstNet, and we have found the same issues emerge for all of us, local control issues, leveraging existing systems, next generation 911 integration, and, of course, business models.    At our request, FirstNet participated in these meetings, and provided additional communication, and a consistency in their message regarding interactions with the State. Their outreach efforts are appreciated. Region 5 has taken steps to identify assets that support emergency responder communication to tower to other technical infrastructure. Of course, there are necessary legal, financial, and jurisdictional considerations when leveraging public infrastructure. Due to the complexity of these considerations, recent FirstNet discussions have been around foregoing leveraging State assets, which is understandable. These considerations, multiplied by 50 States, will take an enormous amount of time and effort. However, leveraging MARCS towers in Ohio could greatly assist in achieving NPSBN coverage necessary.    There are some continued concerns. The FirstNet business model is still somewhat undefined, and, based on recent discussions at our State consultation, it will be defined by the successful bidder through the RFP process. A sustainable business model is critical to know and understand, and building the cost recovery and usage rates will be instrumental in the adoption of this effort. The FirstNet Chief Financial Officer recently discussed a potential user fee of $30 a month, based on four to 13 million users. This sets an expected bar for fees, and is close to what some current service providers are charging, but FirstNet should provide as good or better service at an equal or lower cost. As Vice Chairman Latta knows, we have MARCS users today that indicate that they cannot afford the $20 a month fee we charge.    Additionally, further clarity around user community access and secondary use is required. Utilities are asking questions and making a strong case regarding priority access and spectrum for the critical data systems they support. Their inclusion as partners on the NPSBN could also provide sustainability for that future business model.    There continue to be concerns regarding coverage. Recent discussions have focused on the urban areas, with a phased approach to address rural and remote areas. Currently Ohio's marked service coverage is 97.5 percent of the State. We would expect at least the same from FirstNet in Ohio. I understand the reason for this current focus, but I am concerned in the long run the rural remote areas of the State will be underrepresented. I will continue to press for a FirstNet coverage plan and schedule that clearly extends to these areas in Ohio.    It is important to note that we are supportive of FirstNet and the Nationwide Public Safety broadband network. Ohio is uniquely positioned to take advantage of the significant opportunity to coordinate and converge multiple efforts. These efforts include the upgrade to our LMRS, MARCS, and Ohio's next generation 911 system. I look forward to our continued partnership with FirstNet, and ensure impacts to current initiatives are in alignment with Ohio's direction. Thank you for your time, and I will respond to any questions.</t>
   </si>
   <si>
@@ -361,9 +340,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman. I wanted to ask Mr. Kennedy first about Jersey Net, and then I wanted to ask a question about tribal lands, so I am trying to get this all in.    Nearly 3 years ago Hurricane Sandy devastated New Jersey. The natural disaster was compounded by communication failures across the State, and that is why I have been such a supporter of making New Jersey's one of FirstNet's early builder projects. I know that early on, however, critics pointed to the struggles Governor Christie had getting this project off the ground as an example of why FirstNet couldn't work, and I believe that we have been able to turn this project around since then.    I had hoped to ask one of the architects of the success in New Jersey about how he did it, because I thought his experience would help make other jurisdictions successful, but, unfortunately, the Governor prevented him from being here today, so I have to ask you, Mr. Kennedy, what do you think of the progress Jersey Net has made, and can you elaborate on the lessons that FirstNet hopes to learn from New Jersey's early deployment of its public safety broadband network?</t>
   </si>
   <si>
@@ -391,9 +367,6 @@
     <t>412290</t>
   </si>
   <si>
-    <t>Leonard Lance</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lance. Thank you, Mr. Chairman, and good afternoon to the panel. New Jersey's project is notable for its use of deployable long term evolution communications technology for its first responder network, called Jersey Net. This mobile network system can be incorporated on towable trailers, SUVs, vans, and other platforms to be deployed quickly in emergency situations or natural disasters, like Hurricane Sandy, or to places where communications are limited or non-existent. It is my understanding that rural areas, which comprise about 90 percent of the country, in geography, are particularly vulnerable, since there is no built-out fixed infrastructure.    In this regard, and I go to you, Mr. Kennedy, could you provide guidance on how you plan to incorporate deployables into your buildout plans?</t>
   </si>
   <si>
@@ -439,9 +412,6 @@
     <t>412221</t>
   </si>
   <si>
-    <t>Yvette D. Clarke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Clarke. Mr. Kennedy, Mr. Davis, thank you for testifying here today. Coming out of the New York experience in 9/11, and understanding that there have been a host of iterations of I guess ways of becoming interoperable, I want to know whether we are looking at how we maximize on the infrastructures that have already--that are already in existence, whether FirstNet will be an underlay of those systems, or are we talking about essentially putting those systems aside, and deploying FirstNet as the main vein, if you will, of communications not only in the New York region, but I guess across the Nation.    And I say that because I look at the major investments that have been made in a city like New York. A whole new 911 infrastructure has been put in place. There are a lot of taxpayer dollars there. Is there a way that you have looked at the assets of various regions around the Nation and looked at what could be amenable to the new deployment from a broadband perspective, or whether you see those being phased out, basically, over time so that this becomes sort of the primary tool for communication and coordination?</t>
   </si>
   <si>
@@ -469,9 +439,6 @@
     <t>412460</t>
   </si>
   <si>
-    <t>Bill Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you very much, Mr. Chairman. Mr. Kennedy, as you know, the law governing FirstNet included a provision that would allow the States to opt out of the FirstNet network and deploy their own network, then connect to FirstNet. So I have got a few questions about how this opt out process will work, particularly given that the region of the Nation, the region of the State that I represent is very rural. So I have some questions.    Given the projected release of the FirstNet request for proposal at the end of 2015, or the beginning of 2016, what is the likely timeline for Governors to make their decisions as to whether their States will opt out, or in, to FirstNet?</t>
   </si>
   <si>
@@ -523,9 +490,6 @@
     <t>400114</t>
   </si>
   <si>
-    <t>Michael F. Doyle</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Doyle. Thanks, Mr. Chairman, and thank you to the witnesses for your testimony today.    Mr. Davis and Mr. Kennedy, I have heard some concerns from some of the public safety community in Pennsylvania about who will qualify to use FirstNet, who will make the final decisions about eligibility. Beyond police, firefighters, and other first responders, there are other individuals and organizations that play an important role in emergency response. Shouldn't States ultimately decide who has both permanent and temporary access to the first responder broadband network? For instance, if a building is on fire, and police or firefighters, they might find it very valuable to be able to communicate with the building security, or those in charge with managing the evacuation. Shouldn't the incident commander in these cases be able to make the final decision about who has access to the network?</t>
   </si>
   <si>
@@ -547,9 +511,6 @@
     <t>412445</t>
   </si>
   <si>
-    <t>Billy Long</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Long. Thank you, Mr. Chairman. Mr. Kennedy, it appears that, in many rural areas, first responders will have to rely on roaming with existing rural wireless providers for network coverage, instead of using the national public safety broadband network. How and when are you planning to address roaming coverage?</t>
   </si>
   <si>
@@ -595,9 +556,6 @@
     <t>400101</t>
   </si>
   <si>
-    <t>Diana DeGette</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DeGette. Thank you, Mr. Chairman. I just wanted to ask--Mr. Kennedy, I wanted to ask you about some of the efforts in Colorado. As part of the successful AWS-3 auction, NIST, which as--has labs in Colorado, received $300 million for research on standards, technologies, and applications to advance wireless public safety communications. Now, my understanding is that this research is in consultation with FirstNet, so even though NIST only recently received the funding, I am wondering if you can give us the status of those consultations?</t>
   </si>
   <si>
@@ -646,9 +604,6 @@
     <t>412457</t>
   </si>
   <si>
-    <t>Renee L. Ellmers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Ellmers. Thank you, Mr. Chairman, and thank you to our panel. Mr. Kennedy, I have a couple question--or, actually, I have one question. Mr. Long asked my other question. My colleague from Missouri was hitting on some of the rural issues, and I would like to follow up on a couple of those as well. Since FirstNet is proposing a nationwide and State and regional approach as potential paths for network acquisition, I am concerned with how this affects the rural carriers in limiting their abilities to grow as well. They have smaller service territories, and I am afraid that they are going to get cut out of the process.    In addition, there is no clear incentive for large carriers to partner with the small providers to serve the rural communities. Large carriers lack presence in the--and experience in these rural areas, and the smaller carriers are there. How can--how is this process going to move forward, and, you know, how is FirstNet going to ensure that the effective and efficient creation of the network in rural areas is provided?</t>
   </si>
   <si>
@@ -682,9 +637,6 @@
     <t xml:space="preserve">    Mr. Walden. The gentlelady yields back. The Chair now recognizes the gentleman from New Mexico for 5 minutes.</t>
   </si>
   <si>
-    <t>Lujan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lujan. Mr. Chairman, thank you so very much, and to Mr. Davis and Mr. Kennedy, thank you both for being here.    Mr. Kennedy, as you know, before the establishment of FirstNet, my home State of New Mexico was the recipient of a BTOP grant to support the development of a public safety wireless system, and it is my understanding the FirstNet and New Mexico have reached a spectrum licensing agreement in this space. Can you give us an idea if this is indeed going to be completed by September 30?</t>
   </si>
   <si>
@@ -715,9 +667,6 @@
     <t>412302</t>
   </si>
   <si>
-    <t>Pete Olson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Olson. I thank the chairman and welcome Mr. Kennedy and Mr. Davis. One of the early buildout projects is in the eastern end of my district, Harris County, Texas, population four million people, the third most populous county in America, number one in Texas. The last 2 weeks back home have been pretty rough. We had a 100-year flood on Memorial Day, with homes being lost, businesses being lost. Tragically, a few lives were lost, including one woman in my district. And now Tropical Storm Bill has rolled ashore, a little bit south of Harris County. Made landfall about 150 miles south, meaning the worst side of the hurricane, the northeast quadrant, is hitting my hometown directly. We are managing, but we can always use more weapons in this battle. Bill came ashore between Palacios, Texas, a population of 4,661, and Port O'Connor, Texas, booming with 1,253. Those two towns can't respond like Harris County, Houston can to a crisis, and that is why I am so excited about what FirstNet promises. But FirstNet starts with these early builder programs, like in Harris County.    So my question is, Mr. Kennedy, the recently released GAO report recommended that FirstNet develop a plan to better evaluate their early builder projects and capitalize on the experience gleaned from them. What is the status of those recommendations, sir?</t>
   </si>
   <si>
@@ -745,9 +694,6 @@
     <t>412563</t>
   </si>
   <si>
-    <t>Chris Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman. In a--excuse me. In a prior life I was the County Executive of Erie County, the largest upstate county in New York, 44 cities, towns, and villages, and 100 separate volunteer fire companies. I went through, 7, 8 years ago, the whole issue of low band, 400 megahertz, 800 megahertz. I was the one that killed the 800 megahertz plan in New York State when they came to our county, where it had to work, as the largest upstate county. In my talking to the volunteer fire folks, first of all, we knew it probably wouldn't work, and secondly, we had no money to implement it anyway. So I pulled the county out, it cratered the whole thing across New York State.    So talk to me as though I am this local volunteer fire guy. I just went from low band to 400 megahertz, and it works. It works really, really well. I knew 800 megahertz was a disaster. Now, tell me what my life is going to look like 5 years from now. Do I have to throw all my radios away? Am I going to go to 700 megahertz? Am I going to go to a 4G LTE? Who is going to buy me my equipment?    Our emergency services, central police, you know, I was county exec when Flight 3407 went down. I have had floods, I had blizzards. It was critical that we all talked to each other. Rural areas, some of our areas, believe it or not, do not today have cell coverage. So tell me what my life is going to look like. Make it really simple. I am a volunteer fire chief. What is my life going to look like 5 years from now? Tell me what it is going to be.</t>
   </si>
   <si>
@@ -815,9 +761,6 @@
   </si>
   <si>
     <t>400373</t>
-  </si>
-  <si>
-    <t>John Shimkus</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you, and thanks for staying. Usually I get done earlier, but it is kind of good that I was kind of last, because--going to follow up on a little bit of what my colleague from New York mentioned, and some other concerns. Thanks for being here. Testimony has been great. Mr. Davis, thank you, because you give me a little more comfort, having someone more local to the State. Because, you know, the basic debate the last couple years was to make sure our first line responders had a dedicated system by which we could communicate, and then bring on hopefully new technologies and devices, with how the world changes so quick.    Mr. Kennedy, you have been very articulate, and I think that has been helpful, but I get--always get concerned when we have--we use the terms Government business model, independent corporation. I am not sure I have seen the Federal Government be able to operate that without challenges. So, I don't want to be a fly in the ointment, but the--it really follows up on some of Mr. Collins' comments too, because it is not just--he is trying to get a picture of where we are going to be, but he also said, you know, for the local devices, we have got the--obviously the radio communications, but, of course, we are talking about broadband, and the issue of how do you get--eventually get to hardened commercial devices, which I don't know we talked much about. He did mention who is going to pay for this?    And so when we have a network with seven billion in capital to deploy, and be able to match the coverage, capacity, apps and functionality of the commercial network--commercial networks spend about $20 billion or more a year in upgrades. How are we going to do this? If we--if you only have seven, and the commercial side spends 20 yearly to keep up to date, aren't you a little concerned?</t>
@@ -1240,11 +1183,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1266,11 +1207,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1290,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1318,11 +1255,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1342,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1370,11 +1303,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1396,11 +1327,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1420,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1448,11 +1375,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1472,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1500,11 +1423,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1524,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1552,11 +1471,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1576,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1604,11 +1519,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1628,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1656,11 +1567,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1680,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
         <v>34</v>
-      </c>
-      <c r="G19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1708,11 +1615,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1732,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1760,11 +1663,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1784,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1812,11 +1711,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1836,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1864,11 +1759,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1888,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1916,11 +1807,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1940,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1968,11 +1855,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1992,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2020,11 +1903,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2044,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2072,11 +1951,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2096,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2124,11 +1999,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2148,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2176,11 +2047,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2200,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2228,11 +2095,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2252,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2280,11 +2143,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2304,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2332,11 +2191,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2356,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2384,11 +2239,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2408,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2434,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2460,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2486,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2512,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2538,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2564,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2590,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
-      </c>
-      <c r="G54" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2616,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2642,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
-      </c>
-      <c r="G56" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2668,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2694,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
-      </c>
-      <c r="G58" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2720,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2746,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
-      </c>
-      <c r="G60" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2772,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2798,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
-      </c>
-      <c r="G62" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2824,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2850,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
-      </c>
-      <c r="G64" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2876,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2902,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
-      </c>
-      <c r="G66" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2928,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2954,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
-      </c>
-      <c r="G68" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2980,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3006,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
-      </c>
-      <c r="G70" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3032,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3058,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
-      </c>
-      <c r="G72" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3084,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3110,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
-      </c>
-      <c r="G74" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3136,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3162,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
-      </c>
-      <c r="G76" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3188,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3214,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
-      </c>
-      <c r="G78" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3240,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3266,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
-      </c>
-      <c r="G80" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3292,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3320,11 +3103,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3344,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3370,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
-      </c>
-      <c r="G84" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3396,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3422,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
-      </c>
-      <c r="G86" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3448,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3474,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
-      </c>
-      <c r="G88" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3500,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3526,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
-      </c>
-      <c r="G90" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3552,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3578,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
-      </c>
-      <c r="G92" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3604,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3630,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
-      </c>
-      <c r="G94" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3656,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3682,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
-      </c>
-      <c r="G96" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3708,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3736,11 +3487,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3760,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>114</v>
-      </c>
-      <c r="G99" t="s">
-        <v>115</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3786,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
-      </c>
-      <c r="G100" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3812,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>114</v>
-      </c>
-      <c r="G101" t="s">
-        <v>115</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3838,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
-      </c>
-      <c r="G102" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3864,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>114</v>
-      </c>
-      <c r="G103" t="s">
-        <v>115</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3890,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
-      </c>
-      <c r="G104" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3916,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
+        <v>107</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
         <v>114</v>
-      </c>
-      <c r="G105" t="s">
-        <v>115</v>
-      </c>
-      <c r="H105" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3944,11 +3679,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3968,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>124</v>
-      </c>
-      <c r="G107" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3994,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
-      </c>
-      <c r="G108" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4020,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>124</v>
-      </c>
-      <c r="G109" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4046,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
-      </c>
-      <c r="G110" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4072,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>124</v>
-      </c>
-      <c r="G111" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4098,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
-      </c>
-      <c r="G112" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4124,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>124</v>
-      </c>
-      <c r="G113" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4150,13 +3869,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
-      </c>
-      <c r="G114" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4176,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>124</v>
-      </c>
-      <c r="G115" t="s">
+        <v>116</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
         <v>125</v>
-      </c>
-      <c r="H115" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4202,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
-      </c>
-      <c r="G116" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4228,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>124</v>
-      </c>
-      <c r="G117" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4254,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
-      </c>
-      <c r="G118" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4280,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>124</v>
-      </c>
-      <c r="G119" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4308,11 +4015,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4332,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>140</v>
-      </c>
-      <c r="G121" t="s">
-        <v>141</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4358,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
-      </c>
-      <c r="G122" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4384,13 +4085,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>140</v>
-      </c>
-      <c r="G123" t="s">
-        <v>141</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4410,13 +4109,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
-      </c>
-      <c r="G124" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4436,13 +4133,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>140</v>
-      </c>
-      <c r="G125" t="s">
-        <v>141</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4462,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
-      </c>
-      <c r="G126" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4488,13 +4181,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>140</v>
-      </c>
-      <c r="G127" t="s">
-        <v>141</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4516,11 +4207,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4540,13 +4229,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>150</v>
-      </c>
-      <c r="G129" t="s">
-        <v>151</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4566,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
-      </c>
-      <c r="G130" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4592,13 +4277,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>150</v>
-      </c>
-      <c r="G131" t="s">
-        <v>151</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4618,13 +4301,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
-      </c>
-      <c r="G132" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4644,13 +4325,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>150</v>
-      </c>
-      <c r="G133" t="s">
-        <v>151</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4670,13 +4349,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
-      </c>
-      <c r="G134" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4696,13 +4373,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>150</v>
-      </c>
-      <c r="G135" t="s">
-        <v>151</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4722,13 +4397,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
-      </c>
-      <c r="G136" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4748,13 +4421,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>150</v>
-      </c>
-      <c r="G137" t="s">
-        <v>151</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4774,13 +4445,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
-      </c>
-      <c r="G138" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4800,13 +4469,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
+        <v>140</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
         <v>150</v>
-      </c>
-      <c r="G139" t="s">
-        <v>151</v>
-      </c>
-      <c r="H139" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4826,13 +4493,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
-      </c>
-      <c r="G140" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4852,13 +4517,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>150</v>
-      </c>
-      <c r="G141" t="s">
-        <v>151</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4878,13 +4541,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
-      </c>
-      <c r="G142" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4904,13 +4565,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>150</v>
-      </c>
-      <c r="G143" t="s">
-        <v>151</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4930,13 +4589,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
-      </c>
-      <c r="G144" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4956,13 +4613,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>150</v>
-      </c>
-      <c r="G145" t="s">
-        <v>151</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4984,11 +4639,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5008,13 +4661,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>168</v>
-      </c>
-      <c r="G147" t="s">
-        <v>169</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5034,13 +4685,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
-      </c>
-      <c r="G148" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5060,13 +4709,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>168</v>
-      </c>
-      <c r="G149" t="s">
-        <v>169</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5086,13 +4733,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
-      </c>
-      <c r="G150" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5112,13 +4757,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>168</v>
-      </c>
-      <c r="G151" t="s">
-        <v>169</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5140,11 +4783,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5164,13 +4805,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>176</v>
-      </c>
-      <c r="G153" t="s">
-        <v>177</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5190,13 +4829,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
-      </c>
-      <c r="G154" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5216,13 +4853,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>176</v>
-      </c>
-      <c r="G155" t="s">
-        <v>177</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5242,13 +4877,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
-      </c>
-      <c r="G156" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5268,13 +4901,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>176</v>
-      </c>
-      <c r="G157" t="s">
-        <v>177</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5294,13 +4925,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
-      </c>
-      <c r="G158" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5320,13 +4949,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>176</v>
-      </c>
-      <c r="G159" t="s">
-        <v>177</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5346,13 +4973,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
-      </c>
-      <c r="G160" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5372,13 +4997,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>176</v>
-      </c>
-      <c r="G161" t="s">
-        <v>177</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5398,13 +5021,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
-      </c>
-      <c r="G162" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5424,13 +5045,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>176</v>
-      </c>
-      <c r="G163" t="s">
-        <v>177</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5450,13 +5069,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
-      </c>
-      <c r="G164" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5476,13 +5093,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>176</v>
-      </c>
-      <c r="G165" t="s">
+        <v>164</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
         <v>177</v>
-      </c>
-      <c r="H165" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5504,11 +5119,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5528,13 +5141,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>192</v>
-      </c>
-      <c r="G167" t="s">
-        <v>193</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5554,13 +5165,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
-      </c>
-      <c r="G168" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5580,13 +5189,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>192</v>
-      </c>
-      <c r="G169" t="s">
-        <v>193</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5606,13 +5213,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
-      </c>
-      <c r="G170" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5632,13 +5237,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>192</v>
-      </c>
-      <c r="G171" t="s">
-        <v>193</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5658,13 +5261,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
-      </c>
-      <c r="G172" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5684,13 +5285,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>192</v>
-      </c>
-      <c r="G173" t="s">
-        <v>193</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5710,13 +5309,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
-      </c>
-      <c r="G174" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5736,13 +5333,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>192</v>
-      </c>
-      <c r="G175" t="s">
-        <v>193</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5762,13 +5357,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
-      </c>
-      <c r="G176" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5788,13 +5381,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>192</v>
-      </c>
-      <c r="G177" t="s">
-        <v>193</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5814,13 +5405,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
-      </c>
-      <c r="G178" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5840,13 +5429,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>192</v>
-      </c>
-      <c r="G179" t="s">
-        <v>193</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5866,13 +5453,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>34</v>
-      </c>
-      <c r="G180" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5892,13 +5477,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>192</v>
-      </c>
-      <c r="G181" t="s">
+        <v>179</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
         <v>193</v>
-      </c>
-      <c r="H181" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5920,11 +5503,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>12</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5944,13 +5525,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>209</v>
-      </c>
-      <c r="G183" t="s">
-        <v>210</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5970,13 +5549,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
-      </c>
-      <c r="G184" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5996,13 +5573,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>209</v>
-      </c>
-      <c r="G185" t="s">
-        <v>210</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6022,13 +5597,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
-      </c>
-      <c r="G186" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6048,13 +5621,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>209</v>
-      </c>
-      <c r="G187" t="s">
-        <v>210</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6074,13 +5645,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
-      </c>
-      <c r="G188" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6100,13 +5669,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>209</v>
-      </c>
-      <c r="G189" t="s">
-        <v>210</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6126,13 +5693,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
-      </c>
-      <c r="G190" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6152,13 +5717,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>209</v>
-      </c>
-      <c r="G191" t="s">
-        <v>210</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6178,13 +5741,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
-      </c>
-      <c r="G192" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6204,13 +5765,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>209</v>
-      </c>
-      <c r="G193" t="s">
-        <v>210</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6230,13 +5789,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
-      </c>
-      <c r="G194" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6256,13 +5813,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>209</v>
-      </c>
-      <c r="G195" t="s">
-        <v>210</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6282,13 +5837,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
-      </c>
-      <c r="G196" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6308,13 +5861,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>209</v>
-      </c>
-      <c r="G197" t="s">
-        <v>210</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6336,11 +5887,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6360,13 +5909,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>34</v>
-      </c>
-      <c r="G199" t="s">
-        <v>222</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6386,13 +5933,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>34</v>
-      </c>
-      <c r="G200" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6412,13 +5957,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>34</v>
-      </c>
-      <c r="G201" t="s">
-        <v>222</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6438,13 +5981,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>34</v>
-      </c>
-      <c r="G202" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6464,13 +6005,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
-      </c>
-      <c r="G203" t="s">
-        <v>222</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6490,13 +6029,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>34</v>
-      </c>
-      <c r="G204" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6516,13 +6053,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>34</v>
-      </c>
-      <c r="G205" t="s">
-        <v>222</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6542,13 +6077,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
-      </c>
-      <c r="G206" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6570,11 +6103,9 @@
       <c r="F207" t="s">
         <v>11</v>
       </c>
-      <c r="G207" t="s">
-        <v>12</v>
-      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6594,13 +6125,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>232</v>
-      </c>
-      <c r="G208" t="s">
-        <v>233</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6620,13 +6149,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
-      </c>
-      <c r="G209" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6646,13 +6173,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>232</v>
-      </c>
-      <c r="G210" t="s">
-        <v>233</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6672,13 +6197,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
-      </c>
-      <c r="G211" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6698,13 +6221,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>232</v>
-      </c>
-      <c r="G212" t="s">
-        <v>233</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6724,13 +6245,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>34</v>
-      </c>
-      <c r="G213" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6750,13 +6269,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>232</v>
-      </c>
-      <c r="G214" t="s">
-        <v>233</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6778,11 +6295,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>12</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6802,13 +6317,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>242</v>
-      </c>
-      <c r="G216" t="s">
-        <v>243</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6828,13 +6341,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>34</v>
-      </c>
-      <c r="G217" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6854,13 +6365,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>242</v>
-      </c>
-      <c r="G218" t="s">
-        <v>243</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6880,13 +6389,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
-      </c>
-      <c r="G219" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6906,13 +6413,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>242</v>
-      </c>
-      <c r="G220" t="s">
-        <v>243</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6932,13 +6437,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>34</v>
-      </c>
-      <c r="G221" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6958,13 +6461,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>242</v>
-      </c>
-      <c r="G222" t="s">
-        <v>243</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6984,13 +6485,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>34</v>
-      </c>
-      <c r="G223" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7010,13 +6509,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>242</v>
-      </c>
-      <c r="G224" t="s">
-        <v>243</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7036,13 +6533,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
-      </c>
-      <c r="G225" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7062,13 +6557,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>242</v>
-      </c>
-      <c r="G226" t="s">
-        <v>243</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7088,13 +6581,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>34</v>
-      </c>
-      <c r="G227" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7114,13 +6605,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>242</v>
-      </c>
-      <c r="G228" t="s">
-        <v>243</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7140,13 +6629,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>34</v>
-      </c>
-      <c r="G229" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7166,13 +6653,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>242</v>
-      </c>
-      <c r="G230" t="s">
-        <v>243</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7192,13 +6677,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>34</v>
-      </c>
-      <c r="G231" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7218,13 +6701,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
+        <v>225</v>
+      </c>
+      <c r="G232" t="s"/>
+      <c r="H232" t="s">
         <v>242</v>
-      </c>
-      <c r="G232" t="s">
-        <v>243</v>
-      </c>
-      <c r="H232" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7244,13 +6725,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
-      </c>
-      <c r="G233" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7270,13 +6749,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>242</v>
-      </c>
-      <c r="G234" t="s">
-        <v>243</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7296,13 +6773,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>34</v>
-      </c>
-      <c r="G235" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7322,13 +6797,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>242</v>
-      </c>
-      <c r="G236" t="s">
-        <v>243</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7350,11 +6823,9 @@
       <c r="F237" t="s">
         <v>11</v>
       </c>
-      <c r="G237" t="s">
-        <v>12</v>
-      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7374,13 +6845,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>266</v>
-      </c>
-      <c r="G238" t="s">
-        <v>267</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7400,13 +6869,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>34</v>
-      </c>
-      <c r="G239" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7426,13 +6893,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>266</v>
-      </c>
-      <c r="G240" t="s">
-        <v>267</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7452,13 +6917,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>34</v>
-      </c>
-      <c r="G241" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7478,13 +6941,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>266</v>
-      </c>
-      <c r="G242" t="s">
-        <v>267</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7504,13 +6965,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>34</v>
-      </c>
-      <c r="G243" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7530,13 +6989,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>266</v>
-      </c>
-      <c r="G244" t="s">
-        <v>267</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7556,13 +7013,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>15</v>
-      </c>
-      <c r="G245" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97652.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97652.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400419</t>
   </si>
   <si>
+    <t>Walden</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walden. I will call to order the Subcommittee on Communications and Technology, and I apologize for the delay in getting started. We had some votes, and a couple of member things I had to deal with, but we are here now.    When we last convened to discuss FirstNet, my goal was to leave that hearing with a higher level of comfort with regard to FirstNet's progress and confidence in the way it was conducting its business. As we all recognized then, and continue to acknowledge today, FirstNet has before it an undertaking which rivals the network deployments of our largest national carriers. In fact, given its mandate to build an interoperable wireless broadband service for all of our Nation's first responders, its task will take to all corners of the United States.    Now, early shortcomings in FirstNet's approach to consultation with States and other interested parties had resulted in considerable uncertainty and concern among stakeholders. Confused messaging, a perceived lack of transparency, and unanswered questions regarding FirstNet's vision for the network, and even FirstNet's vision for itself, further complicated things. Questions like, How would FirstNet provide service? Would it build a network, or partner with commercial carriers? What is FirstNet going to charge, and how does the opt-out work? Each contributed to the concerns raised at the hearing, and answers were far from forthcoming. Now, on top of all the policy concerns, FirstNet was also under investigation by the Inspector General of the Department of Commerce into alleged conflicts of interest and contracting concerns when we gaveled in last time.    Now, much has happened since then. There has been some turnover in management, and--with the release of the IG's report in December of last year confirming much of what we feared, that FirstNet had been operating without proper processes in place, and without compliance with the laws that guard against impropriety. It is my hope that the missteps are now behind us, and I believe they are. But that is not to say that there aren't additional challenges.    On April 28 the U.S. Government Accountability Office released a report on FirstNet's progress in establishing the network, concluding that while FirstNet has made progress carrying out its responsibilities, weaknesses in FirstNet's internal controls remain. For example, it remains unclear how FirstNet is internalizing the lessons learned from the Early Builder projects. Those are the five jurisdictions that are already deployed--or deploying public safety broadband networks using FirstNet spectrum. And while the GAO report recommends fixes, it is GAO's succinct statement of what lies ahead that must inform our oversight. FirstNet faces a multitude of risks, significant challenges, and difficult decisions in meeting its statutory responsibilities, including how to become a self-funding entity.    To give FirstNet credit, it has made progress. We witnessed FirstNet's information collections, and consultation, and outreach activities accelerate through 2014. The feedback gathered has informed discussion on deployment and brought productive debate among all stakeholders. Today's hearing reflects the subcommittee's commitment to continued and thorough oversight of FirstNet. We all share the goal of ensuring that our Nation's first responders realize the promise of truly interoperable state-of-the-art emergency communications networks envisioned by the law. With those early missteps behind us today, we look not only at the progress FirstNet has made, but also what new challenges lie ahead, our goal being to leave with a higher level of comfort in FirstNet's progress, and confidence in the way it is conducting its business.    So I look forward to hearing from Mr. Kennedy, who can provide an update on FirstNet's progress, put some of the pieces together, and share with more specificity developments in FirstNet's considerations and visions for the public safety broadband network. I also would like to thank Mr. Davis for appearing a second time before the subcommittee to share his experience as a State Chief Information Officer, and his assessment what needs improvement, and where FirstNet is headed.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412256</t>
   </si>
   <si>
+    <t>Latta</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Latta. Well, thank you very much, Mr. Chairman, and again, thanks for holding today's hearing, and thanks to our witnesses for being back with us today, I really appreciate it, especially Mr. Davis, coming from Ohio. Public safety and emergency communications are critical to protecting the lives of Americans. That is why we must ensure that the implementation of FirstNet is very successful. A reliable nationwide network is essential for first responders to facilitate their communication needs and support their everyday missions.    While I understand developing a nationwide interoperable public safety network is a significant undertaking, it is imperative that it is properly established to meet the needs of all Americans, especially our first responders. Furthermore, I am eager to see the future developments, as consultations are underway to better incorporate the States' input into planning and implementation of the broadband network.    Mr. Chairman, I look forward to today's hearing, and again thank our witnesses for appearing.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>400124</t>
   </si>
   <si>
+    <t>Eshoo</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Eshoo. Thank you, Mr. Chairman. Good afternoon, everyone, and thank you to the witnesses for being here. It has been a year and a half since our subcommittee last held a FirstNet oversight hearing, and progress has been made. I think that there are--we have a lot of questions. Obviously, since we haven't been together for a year and a half for--to do the oversight that needs to be done. But--and we look forward to--I look forward to asking those questions, and I am sure that my colleagues do as well.    Now, in terms of progress, I think amongst the biggest milestones include the release of a strategic road map, ongoing collaboration with States, and most recently the draft request for proposals intended to provide FirstNet with extensive stakeholder input. And that is--in my book, that is one of the--that is really key. You have to talk to customers. You are not in touch with customers, your company or endeavor is going to flop, in my view.    So, thanks to the success of the recently completed    AWS-3 auction, FirstNet will soon have the funds it needs to deliver on the first-ever nationwide interoperable public safety network. And I remind everyone that this was the one recommendation of the 9/11 Commission that the Congress had not made good on, but we did for the American people. So a lot rides on this effort. A lot rides on this effort, and we got the money for you, and did the legislation. It became law, and we want to make sure that this is not only done, but done very well, because it is a very big deal. It is a big deal for our country.    Going forward, I think there are three key areas which FirstNet's leadership should give special consideration to. First, I think it is critical that wireless carriers of all sizes have an opportunity to partner with FirstNet, just be an equal opportunity outfit, in my view. In particular, regional and/or rural providers will have an important role to play, both in building the network, as well as being able to provide consumers with enhanced wireless broadband service when the network is not needed by emergency personnel.    Second, device competition is critical to the success of FirstNet. $5,000 public safety radios are out, o-u-t, so there is--I don't even--I don't want to hear about them anymore. As far as I am concerned, they don't exist, and I don't think any of the dollars that are being provided should go to anything like that. That is yesterday. What is in? Highly innovative broadband enabled devices that can transmit live video from a robot sent to, for example, to assess a suspicious package, view floor plans of a burning building, access medical history of a patient in distress, as well as the wide range of other mobile applications. In other words, you have to be just as 21st century as the rest of the--of this ecosystem is in our country. These devices have to be truly interoperable, and capable of withstanding the physical challenges that first responders face very day.    And finally, I think that FirstNet should ensure its core operations align with the standards and the technologies related to next generation 911. Congressman Shimkus has been, you know, a great, great advocate, a coach here of the e-911 caucus. We have been working on these issues for more years than we want to count, and so there has to be alignment with that operation. The call centers around the country are upgrading to NG-911, and they are becoming capable of receiving photos, and videos, and text messages, so it only makes sense that this information can be seamlessly transmitted to first responders headed to an emergency situation. So the--your operations have to be absolutely aligned.    So as we work toward advancing the next generation of public safety communications, I want to thank you for the work that you have already done, for what you are going to do, and for being here today to testify and give us a good deep dive on where things are, and how you see the future. Thank you, and I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -82,6 +103,12 @@
     <t>400032</t>
   </si>
   <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>Marsha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Blackburn. Thank you, Mr. Chairman, and I want to thank you all for being here to give us an update. As the Chairman said in his comments, this is something we have followed, will continue to follow, and do appropriate oversight with you. We are so focused on your funding mechanism, how you moved to self-funding after that initial tranche of money is exhausted, and then how you are going to see that business model developing.    Also, the issue of interoperability, those of us that have worked through the issues of some of our natural disasters want to make certain that that is being addressed, and that the stakeholders, with all of the first responders across the country, are going to understand, participate, and that we are going to realize this objective of having something that is interoperable.    The other thing I want to touch on, and I will get to this in my questions a bit more, the aspects of a secure network. We are realizing more and more the importance of having a secure network, and, of course, we realize, closed systems, we are going to deal with those one way, enterprise systems another way. When you look at something that meets the interoperability component that you are going to have, the security of the system is just so important to us.    We are living in an age where we face cyberattacks not just on a monthly basis, a weekly basis, but an hourly basis. So please talk with us about this issue of security. It is a heightened concern for us as we move into the age of the Internet of everything, and look at 50 billion devices being attached by the time we get to the end of this decade. So that secure wireless network that is the goal, we want to be certain that indeed it is secure, and hear from you as much as you can divulge to us that--how you are achieving that.    With that, I will yield the balance of my time to anyone who is seeking time. No takers? Time goes back----</t>
   </si>
   <si>
@@ -97,6 +124,12 @@
     <t>400663</t>
   </si>
   <si>
+    <t>Matsui</t>
+  </si>
+  <si>
+    <t>Doris</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Matsui. Thank you, Mr. Chairman, for yielding Mr. Pallone's time to me. First of all, let me say FirstNet is a startup, let us not forget that. Like every startup, it has had its growing pains. For so long there were questions on how FirstNet would be funded, but now we know that it was fully funded, and will be operational, due to this subcommittee's diligent work on AWS-3's record setting spectrum auction. Last year FirstNet laid out a road map, and I am pleased that they are hitting their milestones so far.    From the beginning I remained focused on the need for a strong governance structure at FirstNet to responsibly govern any nationwide public safety interoperability network. Despite some initial concerns about the role of States taking a back seat, I am pleased that the FirstNet board took this issue head on and developed a strong coordinated relationship with the States. It is my hope that we can work together in a bipartisan manner to achieve success for America's first responders. And I yield to anyone on my side who would like to take the rest of the time. No? I yield back the balance of my time.</t>
   </si>
   <si>
@@ -106,12 +139,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Kennedy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kennedy. Thank you, Chairman Walden, Ranking Member Eshoo, members of the subcommittee. I really appreciate being here on behalf of the First Respondent Network Authority. I welcome the opportunity to brief you on FirstNet's progress, and the development of deploying an interoperable nationwide public safety broadband network. It is also a pleasure to appear here today with the CIO of the State of Ohio, Stu Davis. We just recently conducted the Ohio consultation last week in Ohio, and his team has been very active not just in Ohio itself, but even within the region, in setting a great example for our country in how to make this network possible.    I would like to welcome several members of the public safety community who join us here today. This network is all about them. When we put reliable, resilient broadband technology in the hands of police officers, firefighters, emergency medical services personnel across this country, we will enhance public safety like never before. We will create new ways that first responders can save lives, and improve first responders' own safety. As this committee is aware, we are experiencing growing pains in our early days of existence, but we have worked very hard to shore up areas of weakness, and to take on as much responsibility as we can. And I am very confident that today you will find our processes and procedures in line with your expectations.    I am leading a dedicated team of professionals, who are working tirelessly to achieve both the goals that you have created for us, and the internal goals that we strive to achieve every day. Each day we work on recruiting and building the most talented team possible in order to make this program successful. Under the direction of the Chairwoman of the Board, Mrs. Sue Swinson, we have implemented a culture measured by results, while always remembering who we are working for. The network that we will deploy is public safety's network, and this is the key principle that guides our work each day.    The pace at which we are working is very high, and this leads to a demanding, but rewarding, work environment. FirstNet resembles a startup, and we have a team that has rolled up its sleeves, and is focused on consultation and/or acquisition that will result in the successful deployment of a nationwide public safety broadband network. Having a wireless startup inside of Government is a challenge that we are overcoming, and you are able to see the progress that we have made. Since the release of our strategic road map in March of 2014, we have been doing something unusual. We are actually doing what we told you we would do. We released a plan, and we are sticking to it, and we are meeting the goals that we set out to achieve.    Since we last testified before this subcommittee in November of '13, we have accomplished the following. We released 13 RFIs, which examined numerous aspects of the network. We published a statement of objectives with a comprehensive network RFI. This brought together all of the information that we had received into a single document. We conducted three public notices addressing various aspects of our enabling statute, and in April we released a special notice with draft RFP documents. We have been consulting with States and territories, and conducting an enormous amount of outreach to our stakeholders.    While we have taken great strides in the right direction, significant work remains, and we at FirstNet are committed to completing the mission that Congress has given us. One area that I believe we have improved on is engaging with our Public Safety Advisory Committee, known as the PSAC. A lot of the credit for this improvement must go to Chairwoman Swinson and the PSAC Chairman, Chief Harlin McEwan. The PSAC is actively engaged in task teams that are working on critical topics, such as priority and preemption, public safety grade, and end user devices. The 40 members of the PSAC are public safety's voice with FirstNet, and by leveraging it, we will ensure that we integrate public safety into the fabric of the network at every stage of planning and deployment.    Our consultation and outreach efforts have been impressive, but more work remains to be done. We have held consultations with 35 States to date, with a further 15 scheduled. In fact, Mr. Chairman, your home State of Oregon was one of our early consultations, and we have seen an impressive outreach in organizational structure in Oregon, and many other States. FirstNet is collaborating with States in public safety to conduct outreach and consultation, and are leveraging the State and local implementation grant program that has helped fund these important efforts throughout the country.    As we work towards the end of the year, and the planned release of the comprehensive network RFP, the consultation process continues to inform the composition of the RFP, and so it is very important that States are involved at every stage in development of the network. States have many avenues for consultation beyond our in person meetings and regular conference calls. States can have significant consultation feedback through the responses to our public notices and our draft statement of objectives. I have directed the organization to focus on these very two topics in 2015, consultation, and our acquisition of the network. These are our top priorities to meet the requirements of the act.    FirstNet currently has a number of draft RFP documents open for public comment, and we have been very encouraged by the feedback that we received up to this point from both industry, from public safety, and from States. Mr. Chairman, it is the mission, that of deploying a much needed nationwide public safety broadband system that our first responders deserve, that has me excited to come to work every morning. This is not an easy task, but it is extremely rewarding to the hard working team members of FirstNet, and we all understand the critical importance to our country of getting this right for public safety.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walden. Mr. Kennedy, thank you for your leadership, and that of your team's, and the progress that you are making, and your forthright commitment to do what you told us you would do. That is novel. We were just suggesting bringing you back more often.    Now we go to Mr. Stu Davis--we have got a few other agencies we can assign you to--State Chief Information Officer, Assistant Director, Ohio Department of Administrative Services. Mr. Davis, we are delighted to have you back before the subcommittee. Please go ahead.</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Davis. It is good to be here. Good afternoon, Chairman Walden, Ranking Member Eshoo, and members of the subcommittee. Thank you for the opportunity to testify on FirstNet and the National Public Safety Broadband Network. As State CIO, I also chair the Multi-Agency Radio Communication System, or MARCS, and the Steering Committee, Ohio's land mobile radio system that supports voice and data communications for statewide public safety and emergency response. And I also chair Ohio's Next Generation 911 steering committee as well.    I first testified before you in November 2013 and expressed concerns that the Ohio General Assembly had about FirstNet. It called for this subcommittee to continue these meetings, and we commend you for doing so. I also expressed concerns relative to some key components that are necessary for success. FirstNet has been--has made significant progress in further defining and communicating the mitigation of these concerns. Regarding the State's relationship with FirstNet, it is important that FirstNet views this as a partnership. FirstNet has come a long way in this regard, and, over the past year and a half, many States have had the opportunity to meet with representatives from FirstNet and discuss issues and concerns. FirstNet's message has been clear. They are listening, reacting to our concerns. Ohio's FirstNet consultation was held last week, and by all accounts was a positive interaction.    From a planning and development perspective, States, including Ohio, have received planning grants to support stakeholder outreach, governance, and data collection activities in support of FirstNet. Ohio has been pursuing a regional, or a multi-State approach. The FEMA region, five States of Michigan, Minnesota, Indiana, Illinois, Wisconsin, and Ohio, have long been partners in the pursuit of obtaining the best possible public safety communication networks for the region. Region 5 States met often on FirstNet, and we have found the same issues emerge for all of us, local control issues, leveraging existing systems, next generation 911 integration, and, of course, business models.    At our request, FirstNet participated in these meetings, and provided additional communication, and a consistency in their message regarding interactions with the State. Their outreach efforts are appreciated. Region 5 has taken steps to identify assets that support emergency responder communication to tower to other technical infrastructure. Of course, there are necessary legal, financial, and jurisdictional considerations when leveraging public infrastructure. Due to the complexity of these considerations, recent FirstNet discussions have been around foregoing leveraging State assets, which is understandable. These considerations, multiplied by 50 States, will take an enormous amount of time and effort. However, leveraging MARCS towers in Ohio could greatly assist in achieving NPSBN coverage necessary.    There are some continued concerns. The FirstNet business model is still somewhat undefined, and, based on recent discussions at our State consultation, it will be defined by the successful bidder through the RFP process. A sustainable business model is critical to know and understand, and building the cost recovery and usage rates will be instrumental in the adoption of this effort. The FirstNet Chief Financial Officer recently discussed a potential user fee of $30 a month, based on four to 13 million users. This sets an expected bar for fees, and is close to what some current service providers are charging, but FirstNet should provide as good or better service at an equal or lower cost. As Vice Chairman Latta knows, we have MARCS users today that indicate that they cannot afford the $20 a month fee we charge.    Additionally, further clarity around user community access and secondary use is required. Utilities are asking questions and making a strong case regarding priority access and spectrum for the critical data systems they support. Their inclusion as partners on the NPSBN could also provide sustainability for that future business model.    There continue to be concerns regarding coverage. Recent discussions have focused on the urban areas, with a phased approach to address rural and remote areas. Currently Ohio's marked service coverage is 97.5 percent of the State. We would expect at least the same from FirstNet in Ohio. I understand the reason for this current focus, but I am concerned in the long run the rural remote areas of the State will be underrepresented. I will continue to press for a FirstNet coverage plan and schedule that clearly extends to these areas in Ohio.    It is important to note that we are supportive of FirstNet and the Nationwide Public Safety broadband network. Ohio is uniquely positioned to take advantage of the significant opportunity to coordinate and converge multiple efforts. These efforts include the upgrade to our LMRS, MARCS, and Ohio's next generation 911 system. I look forward to our continued partnership with FirstNet, and ensure impacts to current initiatives are in alignment with Ohio's direction. Thank you for your time, and I will respond to any questions.</t>
   </si>
   <si>
@@ -340,6 +379,12 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman. I wanted to ask Mr. Kennedy first about Jersey Net, and then I wanted to ask a question about tribal lands, so I am trying to get this all in.    Nearly 3 years ago Hurricane Sandy devastated New Jersey. The natural disaster was compounded by communication failures across the State, and that is why I have been such a supporter of making New Jersey's one of FirstNet's early builder projects. I know that early on, however, critics pointed to the struggles Governor Christie had getting this project off the ground as an example of why FirstNet couldn't work, and I believe that we have been able to turn this project around since then.    I had hoped to ask one of the architects of the success in New Jersey about how he did it, because I thought his experience would help make other jurisdictions successful, but, unfortunately, the Governor prevented him from being here today, so I have to ask you, Mr. Kennedy, what do you think of the progress Jersey Net has made, and can you elaborate on the lessons that FirstNet hopes to learn from New Jersey's early deployment of its public safety broadband network?</t>
   </si>
   <si>
@@ -367,6 +412,12 @@
     <t>412290</t>
   </si>
   <si>
+    <t>Lance</t>
+  </si>
+  <si>
+    <t>Leonard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lance. Thank you, Mr. Chairman, and good afternoon to the panel. New Jersey's project is notable for its use of deployable long term evolution communications technology for its first responder network, called Jersey Net. This mobile network system can be incorporated on towable trailers, SUVs, vans, and other platforms to be deployed quickly in emergency situations or natural disasters, like Hurricane Sandy, or to places where communications are limited or non-existent. It is my understanding that rural areas, which comprise about 90 percent of the country, in geography, are particularly vulnerable, since there is no built-out fixed infrastructure.    In this regard, and I go to you, Mr. Kennedy, could you provide guidance on how you plan to incorporate deployables into your buildout plans?</t>
   </si>
   <si>
@@ -412,6 +463,12 @@
     <t>412221</t>
   </si>
   <si>
+    <t>Clarke</t>
+  </si>
+  <si>
+    <t>Yvette</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Clarke. Mr. Kennedy, Mr. Davis, thank you for testifying here today. Coming out of the New York experience in 9/11, and understanding that there have been a host of iterations of I guess ways of becoming interoperable, I want to know whether we are looking at how we maximize on the infrastructures that have already--that are already in existence, whether FirstNet will be an underlay of those systems, or are we talking about essentially putting those systems aside, and deploying FirstNet as the main vein, if you will, of communications not only in the New York region, but I guess across the Nation.    And I say that because I look at the major investments that have been made in a city like New York. A whole new 911 infrastructure has been put in place. There are a lot of taxpayer dollars there. Is there a way that you have looked at the assets of various regions around the Nation and looked at what could be amenable to the new deployment from a broadband perspective, or whether you see those being phased out, basically, over time so that this becomes sort of the primary tool for communication and coordination?</t>
   </si>
   <si>
@@ -439,6 +496,12 @@
     <t>412460</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you very much, Mr. Chairman. Mr. Kennedy, as you know, the law governing FirstNet included a provision that would allow the States to opt out of the FirstNet network and deploy their own network, then connect to FirstNet. So I have got a few questions about how this opt out process will work, particularly given that the region of the Nation, the region of the State that I represent is very rural. So I have some questions.    Given the projected release of the FirstNet request for proposal at the end of 2015, or the beginning of 2016, what is the likely timeline for Governors to make their decisions as to whether their States will opt out, or in, to FirstNet?</t>
   </si>
   <si>
@@ -490,6 +553,12 @@
     <t>400114</t>
   </si>
   <si>
+    <t>Doyle</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Doyle. Thanks, Mr. Chairman, and thank you to the witnesses for your testimony today.    Mr. Davis and Mr. Kennedy, I have heard some concerns from some of the public safety community in Pennsylvania about who will qualify to use FirstNet, who will make the final decisions about eligibility. Beyond police, firefighters, and other first responders, there are other individuals and organizations that play an important role in emergency response. Shouldn't States ultimately decide who has both permanent and temporary access to the first responder broadband network? For instance, if a building is on fire, and police or firefighters, they might find it very valuable to be able to communicate with the building security, or those in charge with managing the evacuation. Shouldn't the incident commander in these cases be able to make the final decision about who has access to the network?</t>
   </si>
   <si>
@@ -511,6 +580,12 @@
     <t>412445</t>
   </si>
   <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Long. Thank you, Mr. Chairman. Mr. Kennedy, it appears that, in many rural areas, first responders will have to rely on roaming with existing rural wireless providers for network coverage, instead of using the national public safety broadband network. How and when are you planning to address roaming coverage?</t>
   </si>
   <si>
@@ -556,6 +631,12 @@
     <t>400101</t>
   </si>
   <si>
+    <t>DeGette</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. DeGette. Thank you, Mr. Chairman. I just wanted to ask--Mr. Kennedy, I wanted to ask you about some of the efforts in Colorado. As part of the successful AWS-3 auction, NIST, which as--has labs in Colorado, received $300 million for research on standards, technologies, and applications to advance wireless public safety communications. Now, my understanding is that this research is in consultation with FirstNet, so even though NIST only recently received the funding, I am wondering if you can give us the status of those consultations?</t>
   </si>
   <si>
@@ -604,6 +685,12 @@
     <t>412457</t>
   </si>
   <si>
+    <t>Ellmers</t>
+  </si>
+  <si>
+    <t>Renee</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Ellmers. Thank you, Mr. Chairman, and thank you to our panel. Mr. Kennedy, I have a couple question--or, actually, I have one question. Mr. Long asked my other question. My colleague from Missouri was hitting on some of the rural issues, and I would like to follow up on a couple of those as well. Since FirstNet is proposing a nationwide and State and regional approach as potential paths for network acquisition, I am concerned with how this affects the rural carriers in limiting their abilities to grow as well. They have smaller service territories, and I am afraid that they are going to get cut out of the process.    In addition, there is no clear incentive for large carriers to partner with the small providers to serve the rural communities. Large carriers lack presence in the--and experience in these rural areas, and the smaller carriers are there. How can--how is this process going to move forward, and, you know, how is FirstNet going to ensure that the effective and efficient creation of the network in rural areas is provided?</t>
   </si>
   <si>
@@ -637,6 +724,9 @@
     <t xml:space="preserve">    Mr. Walden. The gentlelady yields back. The Chair now recognizes the gentleman from New Mexico for 5 minutes.</t>
   </si>
   <si>
+    <t>Lujan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lujan. Mr. Chairman, thank you so very much, and to Mr. Davis and Mr. Kennedy, thank you both for being here.    Mr. Kennedy, as you know, before the establishment of FirstNet, my home State of New Mexico was the recipient of a BTOP grant to support the development of a public safety wireless system, and it is my understanding the FirstNet and New Mexico have reached a spectrum licensing agreement in this space. Can you give us an idea if this is indeed going to be completed by September 30?</t>
   </si>
   <si>
@@ -667,6 +757,12 @@
     <t>412302</t>
   </si>
   <si>
+    <t>Olson</t>
+  </si>
+  <si>
+    <t>Pete</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Olson. I thank the chairman and welcome Mr. Kennedy and Mr. Davis. One of the early buildout projects is in the eastern end of my district, Harris County, Texas, population four million people, the third most populous county in America, number one in Texas. The last 2 weeks back home have been pretty rough. We had a 100-year flood on Memorial Day, with homes being lost, businesses being lost. Tragically, a few lives were lost, including one woman in my district. And now Tropical Storm Bill has rolled ashore, a little bit south of Harris County. Made landfall about 150 miles south, meaning the worst side of the hurricane, the northeast quadrant, is hitting my hometown directly. We are managing, but we can always use more weapons in this battle. Bill came ashore between Palacios, Texas, a population of 4,661, and Port O'Connor, Texas, booming with 1,253. Those two towns can't respond like Harris County, Houston can to a crisis, and that is why I am so excited about what FirstNet promises. But FirstNet starts with these early builder programs, like in Harris County.    So my question is, Mr. Kennedy, the recently released GAO report recommended that FirstNet develop a plan to better evaluate their early builder projects and capitalize on the experience gleaned from them. What is the status of those recommendations, sir?</t>
   </si>
   <si>
@@ -694,6 +790,12 @@
     <t>412563</t>
   </si>
   <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman. In a--excuse me. In a prior life I was the County Executive of Erie County, the largest upstate county in New York, 44 cities, towns, and villages, and 100 separate volunteer fire companies. I went through, 7, 8 years ago, the whole issue of low band, 400 megahertz, 800 megahertz. I was the one that killed the 800 megahertz plan in New York State when they came to our county, where it had to work, as the largest upstate county. In my talking to the volunteer fire folks, first of all, we knew it probably wouldn't work, and secondly, we had no money to implement it anyway. So I pulled the county out, it cratered the whole thing across New York State.    So talk to me as though I am this local volunteer fire guy. I just went from low band to 400 megahertz, and it works. It works really, really well. I knew 800 megahertz was a disaster. Now, tell me what my life is going to look like 5 years from now. Do I have to throw all my radios away? Am I going to go to 700 megahertz? Am I going to go to a 4G LTE? Who is going to buy me my equipment?    Our emergency services, central police, you know, I was county exec when Flight 3407 went down. I have had floods, I had blizzards. It was critical that we all talked to each other. Rural areas, some of our areas, believe it or not, do not today have cell coverage. So tell me what my life is going to look like. Make it really simple. I am a volunteer fire chief. What is my life going to look like 5 years from now? Tell me what it is going to be.</t>
   </si>
   <si>
@@ -761,6 +863,12 @@
   </si>
   <si>
     <t>400373</t>
+  </si>
+  <si>
+    <t>Shimkus</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you, and thanks for staying. Usually I get done earlier, but it is kind of good that I was kind of last, because--going to follow up on a little bit of what my colleague from New York mentioned, and some other concerns. Thanks for being here. Testimony has been great. Mr. Davis, thank you, because you give me a little more comfort, having someone more local to the State. Because, you know, the basic debate the last couple years was to make sure our first line responders had a dedicated system by which we could communicate, and then bring on hopefully new technologies and devices, with how the world changes so quick.    Mr. Kennedy, you have been very articulate, and I think that has been helpful, but I get--always get concerned when we have--we use the terms Government business model, independent corporation. I am not sure I have seen the Federal Government be able to operate that without challenges. So, I don't want to be a fly in the ointment, but the--it really follows up on some of Mr. Collins' comments too, because it is not just--he is trying to get a picture of where we are going to be, but he also said, you know, for the local devices, we have got the--obviously the radio communications, but, of course, we are talking about broadband, and the issue of how do you get--eventually get to hardened commercial devices, which I don't know we talked much about. He did mention who is going to pay for this?    And so when we have a network with seven billion in capital to deploy, and be able to match the coverage, capacity, apps and functionality of the commercial network--commercial networks spend about $20 billion or more a year in upgrades. How are we going to do this? If we--if you only have seven, and the commercial side spends 20 yearly to keep up to date, aren't you a little concerned?</t>
@@ -1133,7 +1241,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H245"/>
+  <dimension ref="A1:I245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1141,7 +1249,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,5861 +1271,6874 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
       <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G37" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G48" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G50" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G55" t="s">
+        <v>23</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G56" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
+        <v>23</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G58" t="s">
+        <v>41</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G59" t="s">
+        <v>23</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G60" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>23</v>
+      </c>
       <c r="H61" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G63" t="s">
+        <v>23</v>
+      </c>
       <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G64" t="s">
+        <v>44</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G65" t="s">
+        <v>23</v>
+      </c>
       <c r="H65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G66" t="s">
+        <v>44</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G67" t="s">
+        <v>23</v>
+      </c>
       <c r="H67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G68" t="s">
+        <v>44</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G69" t="s">
+        <v>23</v>
+      </c>
       <c r="H69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G70" t="s">
+        <v>44</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G71" t="s">
+        <v>23</v>
+      </c>
       <c r="H71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G72" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G73" t="s">
+        <v>23</v>
+      </c>
       <c r="H73" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G74" t="s">
+        <v>44</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G75" t="s">
+        <v>23</v>
+      </c>
       <c r="H75" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G76" t="s">
+        <v>44</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G77" t="s">
+        <v>23</v>
+      </c>
       <c r="H77" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G78" t="s">
+        <v>44</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G79" t="s">
+        <v>23</v>
+      </c>
       <c r="H79" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G80" t="s">
+        <v>44</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G81" t="s">
+        <v>23</v>
+      </c>
       <c r="H81" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>18</v>
+      </c>
       <c r="H83" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G84" t="s">
+        <v>44</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>18</v>
+      </c>
       <c r="H85" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G86" t="s">
+        <v>44</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G87" t="s">
+        <v>18</v>
+      </c>
       <c r="H87" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G88" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G89" t="s">
+        <v>18</v>
+      </c>
       <c r="H89" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G90" t="s">
+        <v>41</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G91" t="s">
+        <v>18</v>
+      </c>
       <c r="H91" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G92" t="s">
+        <v>44</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G93" t="s">
+        <v>18</v>
+      </c>
       <c r="H93" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G94" t="s">
+        <v>44</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G95" t="s">
+        <v>18</v>
+      </c>
       <c r="H95" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I95" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>18</v>
+      </c>
       <c r="H97" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I97" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>107</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G99" t="s">
+        <v>121</v>
+      </c>
       <c r="H99" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G100" t="s">
+        <v>41</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>107</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G101" t="s">
+        <v>121</v>
+      </c>
       <c r="H101" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G102" t="s">
+        <v>41</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>107</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G103" t="s">
+        <v>121</v>
+      </c>
       <c r="H103" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I103" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G104" t="s">
+        <v>41</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>107</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G105" t="s">
+        <v>121</v>
+      </c>
       <c r="H105" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I105" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>116</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G107" t="s">
+        <v>132</v>
+      </c>
       <c r="H107" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G108" t="s">
+        <v>41</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>116</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G109" t="s">
+        <v>132</v>
+      </c>
       <c r="H109" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I109" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G110" t="s">
+        <v>41</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>116</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G111" t="s">
+        <v>132</v>
+      </c>
       <c r="H111" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I111" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G112" t="s">
+        <v>41</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>116</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G113" t="s">
+        <v>132</v>
+      </c>
       <c r="H113" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I113" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G114" t="s">
+        <v>41</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>116</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G115" t="s">
+        <v>132</v>
+      </c>
       <c r="H115" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I115" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G116" t="s">
+        <v>41</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>116</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G117" t="s">
+        <v>132</v>
+      </c>
       <c r="H117" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I117" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G118" t="s">
+        <v>41</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>116</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G119" t="s">
+        <v>132</v>
+      </c>
       <c r="H119" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I119" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
       <c r="H120" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>131</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G121" t="s">
+        <v>149</v>
+      </c>
       <c r="H121" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G122" t="s">
+        <v>41</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>131</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G123" t="s">
+        <v>149</v>
+      </c>
       <c r="H123" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I123" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G124" t="s">
+        <v>41</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>131</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G125" t="s">
+        <v>149</v>
+      </c>
       <c r="H125" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I125" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G126" t="s">
+        <v>41</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>131</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G127" t="s">
+        <v>149</v>
+      </c>
       <c r="H127" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I127" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>13</v>
+      </c>
       <c r="H128" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>140</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G129" t="s">
+        <v>160</v>
+      </c>
       <c r="H129" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G130" t="s">
+        <v>41</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>140</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G131" t="s">
+        <v>160</v>
+      </c>
       <c r="H131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I131" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G132" t="s">
+        <v>41</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>140</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G133" t="s">
+        <v>160</v>
+      </c>
       <c r="H133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I133" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G134" t="s">
+        <v>41</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>140</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G135" t="s">
+        <v>160</v>
+      </c>
       <c r="H135" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G136" t="s">
+        <v>41</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>140</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G137" t="s">
+        <v>160</v>
+      </c>
       <c r="H137" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I137" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G138" t="s">
+        <v>41</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>140</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G139" t="s">
+        <v>160</v>
+      </c>
       <c r="H139" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I139" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G140" t="s">
+        <v>44</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>140</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G141" t="s">
+        <v>160</v>
+      </c>
       <c r="H141" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I141" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G142" t="s">
+        <v>44</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>140</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G143" t="s">
+        <v>160</v>
+      </c>
       <c r="H143" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I143" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G144" t="s">
+        <v>44</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>140</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G145" t="s">
+        <v>160</v>
+      </c>
       <c r="H145" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I145" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
       <c r="H146" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>157</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G147" t="s">
+        <v>179</v>
+      </c>
       <c r="H147" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I147" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G148" t="s">
+        <v>41</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>157</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G149" t="s">
+        <v>179</v>
+      </c>
       <c r="H149" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I149" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G150" t="s">
+        <v>41</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>157</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G151" t="s">
+        <v>179</v>
+      </c>
       <c r="H151" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I151" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
       <c r="H152" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>164</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>187</v>
+      </c>
+      <c r="G153" t="s">
+        <v>188</v>
+      </c>
       <c r="H153" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I153" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G154" t="s">
+        <v>41</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>164</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>187</v>
+      </c>
+      <c r="G155" t="s">
+        <v>188</v>
+      </c>
       <c r="H155" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I155" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>29</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G156" t="s">
+        <v>41</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>164</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>187</v>
+      </c>
+      <c r="G157" t="s">
+        <v>188</v>
+      </c>
       <c r="H157" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I157" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G158" t="s">
+        <v>41</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>164</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>187</v>
+      </c>
+      <c r="G159" t="s">
+        <v>188</v>
+      </c>
       <c r="H159" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I159" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G160" t="s">
+        <v>41</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>164</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>187</v>
+      </c>
+      <c r="G161" t="s">
+        <v>188</v>
+      </c>
       <c r="H161" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I161" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G162" t="s">
+        <v>41</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>164</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>187</v>
+      </c>
+      <c r="G163" t="s">
+        <v>188</v>
+      </c>
       <c r="H163" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I163" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G164" t="s">
+        <v>41</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>164</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>187</v>
+      </c>
+      <c r="G165" t="s">
+        <v>188</v>
+      </c>
       <c r="H165" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>189</v>
+      </c>
+      <c r="I165" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>13</v>
+      </c>
       <c r="H166" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I166" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>179</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G167" t="s">
+        <v>205</v>
+      </c>
       <c r="H167" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I167" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G168" t="s">
+        <v>41</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>179</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G169" t="s">
+        <v>205</v>
+      </c>
       <c r="H169" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I169" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>29</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G170" t="s">
+        <v>41</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>179</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G171" t="s">
+        <v>205</v>
+      </c>
       <c r="H171" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I171" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G172" t="s">
+        <v>41</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>179</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G173" t="s">
+        <v>205</v>
+      </c>
       <c r="H173" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I173" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G174" t="s">
+        <v>41</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>179</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G175" t="s">
+        <v>205</v>
+      </c>
       <c r="H175" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I175" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>29</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G176" t="s">
+        <v>41</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>179</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G177" t="s">
+        <v>205</v>
+      </c>
       <c r="H177" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I177" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G178" t="s">
+        <v>41</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>179</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G179" t="s">
+        <v>205</v>
+      </c>
       <c r="H179" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I179" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>29</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G180" t="s">
+        <v>41</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>179</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G181" t="s">
+        <v>205</v>
+      </c>
       <c r="H181" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I181" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G182" t="s">
+        <v>13</v>
+      </c>
       <c r="H182" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I182" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>195</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>222</v>
+      </c>
+      <c r="G183" t="s">
+        <v>223</v>
+      </c>
       <c r="H183" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I183" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G184" t="s">
+        <v>41</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>195</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>222</v>
+      </c>
+      <c r="G185" t="s">
+        <v>223</v>
+      </c>
       <c r="H185" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I185" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>29</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G186" t="s">
+        <v>41</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>195</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>222</v>
+      </c>
+      <c r="G187" t="s">
+        <v>223</v>
+      </c>
       <c r="H187" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I187" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>29</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G188" t="s">
+        <v>41</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>195</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>222</v>
+      </c>
+      <c r="G189" t="s">
+        <v>223</v>
+      </c>
       <c r="H189" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I189" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>29</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G190" t="s">
+        <v>41</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>195</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>222</v>
+      </c>
+      <c r="G191" t="s">
+        <v>223</v>
+      </c>
       <c r="H191" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I191" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G192" t="s">
+        <v>41</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>195</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>222</v>
+      </c>
+      <c r="G193" t="s">
+        <v>223</v>
+      </c>
       <c r="H193" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I193" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G194" t="s">
+        <v>41</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>195</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>222</v>
+      </c>
+      <c r="G195" t="s">
+        <v>223</v>
+      </c>
       <c r="H195" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I195" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>29</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G196" t="s">
+        <v>41</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>195</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>222</v>
+      </c>
+      <c r="G197" t="s">
+        <v>223</v>
+      </c>
       <c r="H197" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I197" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>11</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G198" t="s">
+        <v>13</v>
+      </c>
       <c r="H198" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I198" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G199" t="s">
+        <v>236</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>29</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G200" t="s">
+        <v>41</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>29</v>
-      </c>
-      <c r="G201" t="s"/>
-      <c r="H201" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G201" t="s">
+        <v>236</v>
+      </c>
+      <c r="H201" t="s"/>
+      <c r="I201" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>29</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G202" t="s">
+        <v>41</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>29</v>
-      </c>
-      <c r="G203" t="s"/>
-      <c r="H203" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G203" t="s">
+        <v>236</v>
+      </c>
+      <c r="H203" t="s"/>
+      <c r="I203" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>29</v>
-      </c>
-      <c r="G204" t="s"/>
-      <c r="H204" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G204" t="s">
+        <v>41</v>
+      </c>
+      <c r="H204" t="s"/>
+      <c r="I204" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>29</v>
-      </c>
-      <c r="G205" t="s"/>
-      <c r="H205" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G205" t="s">
+        <v>236</v>
+      </c>
+      <c r="H205" t="s"/>
+      <c r="I205" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
-      </c>
-      <c r="G206" t="s"/>
-      <c r="H206" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G206" t="s">
+        <v>41</v>
+      </c>
+      <c r="H206" t="s"/>
+      <c r="I206" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>11</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G207" t="s">
+        <v>13</v>
+      </c>
       <c r="H207" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I207" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>216</v>
-      </c>
-      <c r="G208" t="s"/>
+        <v>246</v>
+      </c>
+      <c r="G208" t="s">
+        <v>247</v>
+      </c>
       <c r="H208" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>248</v>
+      </c>
+      <c r="I208" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>29</v>
-      </c>
-      <c r="G209" t="s"/>
-      <c r="H209" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G209" t="s">
+        <v>41</v>
+      </c>
+      <c r="H209" t="s"/>
+      <c r="I209" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>216</v>
-      </c>
-      <c r="G210" t="s"/>
+        <v>246</v>
+      </c>
+      <c r="G210" t="s">
+        <v>247</v>
+      </c>
       <c r="H210" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>248</v>
+      </c>
+      <c r="I210" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>29</v>
-      </c>
-      <c r="G211" t="s"/>
-      <c r="H211" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G211" t="s">
+        <v>41</v>
+      </c>
+      <c r="H211" t="s"/>
+      <c r="I211" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>216</v>
-      </c>
-      <c r="G212" t="s"/>
+        <v>246</v>
+      </c>
+      <c r="G212" t="s">
+        <v>247</v>
+      </c>
       <c r="H212" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>248</v>
+      </c>
+      <c r="I212" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>29</v>
-      </c>
-      <c r="G213" t="s"/>
-      <c r="H213" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G213" t="s">
+        <v>41</v>
+      </c>
+      <c r="H213" t="s"/>
+      <c r="I213" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>216</v>
-      </c>
-      <c r="G214" t="s"/>
+        <v>246</v>
+      </c>
+      <c r="G214" t="s">
+        <v>247</v>
+      </c>
       <c r="H214" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>248</v>
+      </c>
+      <c r="I214" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>11</v>
-      </c>
-      <c r="G215" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G215" t="s">
+        <v>13</v>
+      </c>
       <c r="H215" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I215" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>225</v>
-      </c>
-      <c r="G216" t="s"/>
+        <v>257</v>
+      </c>
+      <c r="G216" t="s">
+        <v>258</v>
+      </c>
       <c r="H216" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>259</v>
+      </c>
+      <c r="I216" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>29</v>
-      </c>
-      <c r="G217" t="s"/>
-      <c r="H217" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G217" t="s">
+        <v>41</v>
+      </c>
+      <c r="H217" t="s"/>
+      <c r="I217" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>225</v>
-      </c>
-      <c r="G218" t="s"/>
+        <v>257</v>
+      </c>
+      <c r="G218" t="s">
+        <v>258</v>
+      </c>
       <c r="H218" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>259</v>
+      </c>
+      <c r="I218" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>29</v>
-      </c>
-      <c r="G219" t="s"/>
-      <c r="H219" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G219" t="s">
+        <v>41</v>
+      </c>
+      <c r="H219" t="s"/>
+      <c r="I219" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>225</v>
-      </c>
-      <c r="G220" t="s"/>
+        <v>257</v>
+      </c>
+      <c r="G220" t="s">
+        <v>258</v>
+      </c>
       <c r="H220" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>259</v>
+      </c>
+      <c r="I220" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>29</v>
-      </c>
-      <c r="G221" t="s"/>
-      <c r="H221" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G221" t="s">
+        <v>41</v>
+      </c>
+      <c r="H221" t="s"/>
+      <c r="I221" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>225</v>
-      </c>
-      <c r="G222" t="s"/>
+        <v>257</v>
+      </c>
+      <c r="G222" t="s">
+        <v>258</v>
+      </c>
       <c r="H222" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>259</v>
+      </c>
+      <c r="I222" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>29</v>
-      </c>
-      <c r="G223" t="s"/>
-      <c r="H223" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G223" t="s">
+        <v>41</v>
+      </c>
+      <c r="H223" t="s"/>
+      <c r="I223" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>225</v>
-      </c>
-      <c r="G224" t="s"/>
+        <v>257</v>
+      </c>
+      <c r="G224" t="s">
+        <v>258</v>
+      </c>
       <c r="H224" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>259</v>
+      </c>
+      <c r="I224" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>29</v>
-      </c>
-      <c r="G225" t="s"/>
-      <c r="H225" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G225" t="s">
+        <v>41</v>
+      </c>
+      <c r="H225" t="s"/>
+      <c r="I225" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F226" t="s">
-        <v>225</v>
-      </c>
-      <c r="G226" t="s"/>
+        <v>257</v>
+      </c>
+      <c r="G226" t="s">
+        <v>258</v>
+      </c>
       <c r="H226" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>259</v>
+      </c>
+      <c r="I226" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F227" t="s">
-        <v>29</v>
-      </c>
-      <c r="G227" t="s"/>
-      <c r="H227" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G227" t="s">
+        <v>41</v>
+      </c>
+      <c r="H227" t="s"/>
+      <c r="I227" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F228" t="s">
-        <v>225</v>
-      </c>
-      <c r="G228" t="s"/>
+        <v>257</v>
+      </c>
+      <c r="G228" t="s">
+        <v>258</v>
+      </c>
       <c r="H228" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>259</v>
+      </c>
+      <c r="I228" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F229" t="s">
-        <v>29</v>
-      </c>
-      <c r="G229" t="s"/>
-      <c r="H229" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G229" t="s">
+        <v>41</v>
+      </c>
+      <c r="H229" t="s"/>
+      <c r="I229" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E230" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F230" t="s">
-        <v>225</v>
-      </c>
-      <c r="G230" t="s"/>
+        <v>257</v>
+      </c>
+      <c r="G230" t="s">
+        <v>258</v>
+      </c>
       <c r="H230" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>259</v>
+      </c>
+      <c r="I230" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E231" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F231" t="s">
-        <v>29</v>
-      </c>
-      <c r="G231" t="s"/>
-      <c r="H231" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G231" t="s">
+        <v>41</v>
+      </c>
+      <c r="H231" t="s"/>
+      <c r="I231" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F232" t="s">
-        <v>225</v>
-      </c>
-      <c r="G232" t="s"/>
+        <v>257</v>
+      </c>
+      <c r="G232" t="s">
+        <v>258</v>
+      </c>
       <c r="H232" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>259</v>
+      </c>
+      <c r="I232" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E233" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
-      </c>
-      <c r="G233" t="s"/>
-      <c r="H233" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G233" t="s">
+        <v>41</v>
+      </c>
+      <c r="H233" t="s"/>
+      <c r="I233" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E234" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F234" t="s">
-        <v>225</v>
-      </c>
-      <c r="G234" t="s"/>
+        <v>257</v>
+      </c>
+      <c r="G234" t="s">
+        <v>258</v>
+      </c>
       <c r="H234" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>259</v>
+      </c>
+      <c r="I234" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E235" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F235" t="s">
-        <v>29</v>
-      </c>
-      <c r="G235" t="s"/>
-      <c r="H235" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G235" t="s">
+        <v>41</v>
+      </c>
+      <c r="H235" t="s"/>
+      <c r="I235" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E236" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F236" t="s">
-        <v>225</v>
-      </c>
-      <c r="G236" t="s"/>
+        <v>257</v>
+      </c>
+      <c r="G236" t="s">
+        <v>258</v>
+      </c>
       <c r="H236" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>259</v>
+      </c>
+      <c r="I236" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E237" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F237" t="s">
-        <v>11</v>
-      </c>
-      <c r="G237" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G237" t="s">
+        <v>13</v>
+      </c>
       <c r="H237" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I237" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E238" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F238" t="s">
-        <v>248</v>
-      </c>
-      <c r="G238" t="s"/>
+        <v>282</v>
+      </c>
+      <c r="G238" t="s">
+        <v>283</v>
+      </c>
       <c r="H238" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>284</v>
+      </c>
+      <c r="I238" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E239" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F239" t="s">
-        <v>29</v>
-      </c>
-      <c r="G239" t="s"/>
-      <c r="H239" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G239" t="s">
+        <v>41</v>
+      </c>
+      <c r="H239" t="s"/>
+      <c r="I239" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E240" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F240" t="s">
-        <v>248</v>
-      </c>
-      <c r="G240" t="s"/>
+        <v>282</v>
+      </c>
+      <c r="G240" t="s">
+        <v>283</v>
+      </c>
       <c r="H240" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>284</v>
+      </c>
+      <c r="I240" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E241" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F241" t="s">
-        <v>29</v>
-      </c>
-      <c r="G241" t="s"/>
-      <c r="H241" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G241" t="s">
+        <v>41</v>
+      </c>
+      <c r="H241" t="s"/>
+      <c r="I241" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E242" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F242" t="s">
-        <v>248</v>
-      </c>
-      <c r="G242" t="s"/>
+        <v>282</v>
+      </c>
+      <c r="G242" t="s">
+        <v>283</v>
+      </c>
       <c r="H242" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>284</v>
+      </c>
+      <c r="I242" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E243" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F243" t="s">
-        <v>29</v>
-      </c>
-      <c r="G243" t="s"/>
-      <c r="H243" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="G243" t="s">
+        <v>41</v>
+      </c>
+      <c r="H243" t="s"/>
+      <c r="I243" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D244" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E244" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F244" t="s">
-        <v>248</v>
-      </c>
-      <c r="G244" t="s"/>
+        <v>282</v>
+      </c>
+      <c r="G244" t="s">
+        <v>283</v>
+      </c>
       <c r="H244" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+        <v>284</v>
+      </c>
+      <c r="I244" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E245" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F245" t="s">
-        <v>14</v>
-      </c>
-      <c r="G245" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G245" t="s">
+        <v>18</v>
+      </c>
       <c r="H245" t="s">
-        <v>256</v>
+        <v>19</v>
+      </c>
+      <c r="I245" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
